--- a/excel/testreports/testua.xlsx
+++ b/excel/testreports/testua.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Трейдінг" sheetId="1" r:id="rId1"/>
-    <sheet name="Дивіденди" sheetId="2" r:id="rId5"/>
-    <sheet name="Податки" sheetId="3" r:id="rId6"/>
+    <sheet name="Деталі" sheetId="2" r:id="rId4"/>
+    <sheet name="Дивіденди" sheetId="3" r:id="rId6"/>
+    <sheet name="Податки" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -18,52 +19,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
+    <t>Акція</t>
+  </si>
+  <si>
     <t>Номер Продажу</t>
   </si>
   <si>
+    <t>Комісія Відкриття</t>
+  </si>
+  <si>
+    <t>Ціна Відкриття UAH + Комісія Відкриття UAH</t>
+  </si>
+  <si>
+    <t>Кількість</t>
+  </si>
+  <si>
+    <t>Ціна Закриття UAH - Комісія Закриття UAH</t>
+  </si>
+  <si>
+    <t>Дата Відкриття</t>
+  </si>
+  <si>
     <t>Ціна Відкриття</t>
   </si>
   <si>
-    <t>Комісія Закриття</t>
-  </si>
-  <si>
-    <t>Ціна Відкриття UAH + Комісія Відкриття UAH</t>
+    <t>Валютний Курс UAH На Відкриття</t>
   </si>
   <si>
     <t>Дата Закриття</t>
   </si>
   <si>
-    <t>Ціна Закриття UAH - Комісія Закриття UAH</t>
+    <t>Ціна Закриття</t>
+  </si>
+  <si>
+    <t>Валютний Курс UAH На Закриття</t>
   </si>
   <si>
     <t>Гривневий Дохід</t>
   </si>
   <si>
-    <t>Дата Відкриття</t>
-  </si>
-  <si>
-    <t>Комісія Відкриття</t>
-  </si>
-  <si>
-    <t>Ціна Закриття</t>
-  </si>
-  <si>
-    <t>Акція</t>
-  </si>
-  <si>
-    <t>Валютний Курс UAH На Відкриття</t>
-  </si>
-  <si>
-    <t>Валютний Курс UAH На Закриття</t>
-  </si>
-  <si>
-    <t>Кількість</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
     <t>trade 1</t>
+  </si>
+  <si>
+    <t>акція TEST 1 шт / куплено 2020-09-03 16:30:00 +0000 UTC/ продано 2020-09-04 16:30:00 +0000 UTC</t>
   </si>
   <si>
     <t>Дата дивіденду</t>
@@ -425,72 +426,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="11" min="11" width="9.5"/>
-    <col customWidth="true" max="10" min="10" width="18"/>
+    <col customWidth="true" max="13" min="13" width="17"/>
+    <col customWidth="true" max="9" min="9" width="18"/>
+    <col customWidth="true" max="8" min="8" width="12"/>
+    <col customWidth="true" max="7" min="7" width="16"/>
     <col customWidth="true" max="6" min="6" width="18"/>
+    <col customWidth="true" max="4" min="4" width="12"/>
+    <col customWidth="true" max="3" min="3" width="16"/>
+    <col customWidth="true" max="11" min="11" width="21"/>
+    <col customWidth="true" max="10" min="10" width="9.5"/>
+    <col customWidth="true" max="12" min="12" width="21"/>
+    <col customWidth="true" max="5" min="5" width="16"/>
+    <col customWidth="true" max="2" min="2" width="15"/>
     <col customWidth="true" max="1" min="1" width="13.5"/>
-    <col customWidth="true" max="8" min="8" width="12"/>
-    <col customWidth="true" max="5" min="5" width="16"/>
-    <col customWidth="true" max="3" min="3" width="16"/>
-    <col customWidth="true" max="14" min="14" width="17"/>
-    <col customWidth="true" max="12" min="12" width="21"/>
-    <col customWidth="true" max="7" min="7" width="16"/>
-    <col customWidth="true" max="13" min="13" width="21"/>
-    <col customWidth="true" max="9" min="9" width="16"/>
-    <col customWidth="true" max="4" min="4" width="12"/>
-    <col customWidth="true" max="2" min="2" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>44077.6875</v>
@@ -511,22 +508,19 @@
         <v>101</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>27.6908</v>
       </c>
       <c r="J2">
-        <v>27.6908</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <f>ROUND(((H2*J2)*I2); 2)</f>
       </c>
       <c r="L2">
-        <f>ROUND(((H2*K2-I2)*J2); 2)</f>
+        <f>ROUND(((D2*J2+E2)*F2); 2)</f>
       </c>
       <c r="M2">
-        <f>ROUND(((D2*K2+E2)*F2); 2)</f>
-      </c>
-      <c r="N2">
-        <f>L2-M2</f>
+        <f>K2-L2</f>
       </c>
     </row>
   </sheetData>
@@ -534,6 +528,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -585,7 +596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -610,7 +621,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>SUM(Трейдінг!N2:Трейдінг!N2)</f>
+        <f>SUM(Трейдінг!M2:Трейдінг!M2)</f>
       </c>
       <c r="B2">
         <f>ROUND((A2/100)*18; 2)</f>
